--- a/medicine/Enfance/Megan_Miranda/Megan_Miranda.xlsx
+++ b/medicine/Enfance/Megan_Miranda/Megan_Miranda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Megan Miranda est une femme de lettres américaine, auteure de récits appartenant aux genres du roman policier ou du fantasy, et principalement destinés à la jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Megan Miranda fait des études au Massachusetts Institute of Technology, où elle obtient un diplôme de biologie.
 Elle obtient un succès international avec Fracture (2011), œuvre de littérature d'enfance et de jeunesse se présentant comme un roman policier à la limite du fantastique, qui raconte les aventures de la jeune Delaney Maxwell qui, après avoir été rescapée d'un noyade, se découvre des capacités surnaturelles de prédire la mort.
@@ -546,15 +560,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Fracture
-Fracture, Pocket Jeunesse, 2014 ((en) Fracture, 2011), trad. Juliette Paquereau, 320 p.  (ISBN 978-2-266-21930-3)
+          <t>Série Fracture</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fracture, Pocket Jeunesse, 2014 ((en) Fracture, 2011), trad. Juliette Paquereau, 320 p.  (ISBN 978-2-266-21930-3)
 (en) Hysteria, 2013
 (en) Vengeance, 2014
 (en) Soulprint, 2015
 (en) The Safest Lies, 2016
-(en) Fragments of the Lost, 2017
-Romans indépendants
-Évanouies, La Martinière, 2016 ((en) All the Missing Girls, 2016), trad. Pierre Brevignon, 448 p.  (ISBN 978-2-7324-7207-2)
+(en) Fragments of the Lost, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Megan_Miranda</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Megan_Miranda</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Évanouies, La Martinière, 2016 ((en) All the Missing Girls, 2016), trad. Pierre Brevignon, 448 p.  (ISBN 978-2-7324-7207-2)
 (en) The Perfect Stranger, 2017
 (en) The Last Guest House, 2019
 Come Find Me, Bayard jeunesse, 2022 ((en) Come Find Me, 2019), trad. Françoise Nagel, 432 p.  (ISBN 979-10-363-1128-4)
